--- a/biology/Origine et évolution du vivant/Stratégie_évolutivement_stable/Stratégie_évolutivement_stable.xlsx
+++ b/biology/Origine et évolution du vivant/Stratégie_évolutivement_stable/Stratégie_évolutivement_stable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_%C3%A9volutivement_stable</t>
+          <t>Stratégie_évolutivement_stable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En théorie des jeux, en psychologie comportementale et en psychologie évolutionniste, une stratégie évolutivement stable ou SES (en anglais, evolutionarily stable strategy ou ESS) est un cas particulier d'équilibre de Nash tel que, dans une grande population de joueurs se rencontrant aléatoirement, plusieurs stratégies peuvent coexister chacune possédant une fréquence d'équilibre propre.
 Développé originellement en 1973 par John Maynard Smith et George R. Price pour expliquer l'évolution des comportements sociaux, cette théorie est maintenant largement utilisée en écologie comportementale, en sociobiologie, en économie, en psychologie évolutionniste, en anthropologie biosociale, en science politique et en philosophie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_%C3%A9volutivement_stable</t>
+          <t>Stratégie_évolutivement_stable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de stratégie évolutionnairement stable (SES) a été introduite par John Maynard Smith sur une intuition de George R. Price dans son essai Théorie des jeux et évolution de la lutte (« Game Theory and the Evolution of Fighting »). Robert Axelrod a repris la notion dans ses travaux sur La notion de coopération (The Evolution of Cooperation) portant sur des comparaisons de stratégie face à un dilemme du prisonnier répété. Ce système est utilisé pour étudier le comportement animal.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_%C3%A9volutivement_stable</t>
+          <t>Stratégie_évolutivement_stable</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Du choix rationnel au choix non-rationnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une des plus grandes innovations apportées par la théorie SES est le concept de choix irrationnel. En effet, l'équilibre de Nash utilisé jusqu'alors en économie présupposait que les acteurs économiques agissaient de façon totalement rationnelle, c'est-à-dire :
 qu'ils sont conscients de la structure du jeu,
@@ -555,7 +571,7 @@
 les organismes simples comme les insectes ou les mollusques ne possèdent pas les capacités cognitives permettant le choix rationnel.
 Cette conception a permis de comprendre que des mécanismes instinctifs, utilisant un ensemble limité de fonctions cognitives simples et conçus par le processus aléatoire qu'est l'évolution naturelle, peuvent produire des systèmes comportementaux équivalent au choix rationnel. 
 Les mécanismes économiques « émotionnels » de l'humain, sélectionnés au cours de son évolution, sont de ce type. Si les choix irrationnels permettent aux acteurs économiques d'agir de façon semblant pratiquement rationnelle, certaines situations nouvelles démontrent l'inadéquation de ces mécanismes. Par exemple dernièrement, malgré une compréhension claire et rationnelle des dangers du protectionnisme en temps de crise économique[réf. nécessaire], plusieurs États, en particulier les États-Unis, ont adopté de telles mesures. Il est fort probable que ce choix « irrationnel » soit une simple manifestation du mécanisme d'augmentation de la protection du territoire et des ressources en temps de crise écologique tel que pratiqué par tous les animaux territoriaux.
-Nous devons aux psychologues Daniel Kahneman, récipiendaire du prix Nobel 2002 d'économie, et Amos Tversky la démonstration de la manière dont les émotions biaisent la prise de décision boursière ; les pertes ne sont pas évaluées de la même façon que les gains. L'origine de ce biais cognitif ne peut s'expliquer que par l'approche phylogénétique de la psychologie évolutionniste ; dans l'histoire de l'homme, en général, l'application de  l'heuristique « un tiens vaut mieux que deux tu l’auras » fut avantageux. Le psychologue évolutionniste Gerd Gigerenzer démontra que l'évaluation des fréquences est beaucoup plus précise que celle des probabilités chez l'homme[1], ceci confirmant le modèle de l'évolution sociale de ces facultés.
+Nous devons aux psychologues Daniel Kahneman, récipiendaire du prix Nobel 2002 d'économie, et Amos Tversky la démonstration de la manière dont les émotions biaisent la prise de décision boursière ; les pertes ne sont pas évaluées de la même façon que les gains. L'origine de ce biais cognitif ne peut s'expliquer que par l'approche phylogénétique de la psychologie évolutionniste ; dans l'histoire de l'homme, en général, l'application de  l'heuristique « un tiens vaut mieux que deux tu l’auras » fut avantageux. Le psychologue évolutionniste Gerd Gigerenzer démontra que l'évaluation des fréquences est beaucoup plus précise que celle des probabilités chez l'homme, ceci confirmant le modèle de l'évolution sociale de ces facultés.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_%C3%A9volutivement_stable</t>
+          <t>Stratégie_évolutivement_stable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>De l'équilibre de Nash à la SES à la EES</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un jeu à deux joueurs, un équilibre de Nash est une stratégie telle que si les deux joueurs jouent leurs parts respectives, aucun changement de stratégie par un des joueurs ne lui permettra de réaliser un meilleur gain. 
 Soit E(S, T) l'évaluation du jeu de la stratégie S contre la stratégie T. La paire (S, S) est un équilibre de Nash si et seulement si la situation suivante est vraie pour les deux joueurs :
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_%C3%A9volutivement_stable</t>
+          <t>Stratégie_évolutivement_stable</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Biologie Évolutive</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Une SES est liée à la notion d’invasion : une population de "joueurs" qui appliquent la stratégie X voient arriver dans leur milieu un joueur qui applique la stratégie Y. Ce joueur est envahissant si sa stratégie Y lui permet d’être plus performant que la moyenne des X. En considérant que les joueurs sont capables de le remarquer et de changer de stratégie, cela pousserait la population indigène à opter pour la stratégie Y. Si, comme c’est le cas souvent, le rendement de la stratégie Y est décroissant avec le nombre d’adhérents, alors on aboutit à un rapport équilibré entre les deux types de comportement.
 Une stratégie est évolutivement stable s’il n’existe pas de stratégie Y qui puisse l’envahir.
